--- a/doc/MML4/MML40コード.xlsx
+++ b/doc/MML4/MML40コード.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8505" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="54" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <sheet name="hdObservationTable01" sheetId="52" r:id="rId52"/>
     <sheet name="hdTestConditionTable01" sheetId="53" r:id="rId53"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1029">
   <si>
     <t>Check digit schema（チェックディジット方式，HL7-0061準拠）　</t>
   </si>
@@ -3252,12 +3252,27 @@
     <t>Medical Department ID type（医科診療科コード）_x000C_</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MML0005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hemodialisis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透析</t>
+    <rPh sb="0" eb="2">
+      <t>トウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3655,17 +3670,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3677,9 +3686,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3702,6 +3708,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="281">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -3988,6 +4003,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4315,21 +4335,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4758,14 +4778,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4877,7 +4897,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4894,11 +4914,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4966,12 +4986,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5037,7 +5057,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5051,14 +5071,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5107,7 +5127,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5121,14 +5141,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5168,7 +5188,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5182,12 +5202,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5235,10 +5255,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5269,7 +5289,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5283,14 +5303,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5331,7 +5351,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5345,14 +5365,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5488,7 +5508,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5505,11 +5525,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5584,11 +5604,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5662,11 +5682,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5723,11 +5743,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5785,11 +5805,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6036,10 +6056,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6097,11 +6117,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6183,11 +6203,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6253,11 +6273,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6324,11 +6344,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6395,11 +6415,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6594,11 +6614,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6680,11 +6700,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6709,7 +6729,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>463</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -6717,7 +6737,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>464</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6725,7 +6745,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>465</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -6733,7 +6753,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>466</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -6741,7 +6761,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>467</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -6749,7 +6769,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>468</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -6757,7 +6777,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>469</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -6765,7 +6785,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>470</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -6773,7 +6793,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>471</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -6781,7 +6801,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -6789,7 +6809,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -6797,7 +6817,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -6805,7 +6825,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -6813,7 +6833,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -6821,7 +6841,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -6829,7 +6849,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -6837,7 +6857,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -6845,7 +6865,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -6853,7 +6873,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -6861,7 +6881,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -6869,7 +6889,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -6877,7 +6897,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -6885,7 +6905,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -6893,7 +6913,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -6901,7 +6921,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -6909,7 +6929,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -6917,7 +6937,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="14">
+      <c r="B29" s="12">
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -6925,7 +6945,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="14">
+      <c r="B30" s="12">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -6933,7 +6953,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -6941,7 +6961,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -6949,7 +6969,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -6957,7 +6977,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -6965,7 +6985,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="14">
+      <c r="B35" s="12">
         <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6973,7 +6993,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -6981,7 +7001,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -6989,7 +7009,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -7020,15 +7040,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7135,11 +7153,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7206,11 +7224,11 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7234,7 +7252,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>462</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -7242,7 +7260,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>485</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -7250,7 +7268,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>486</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7258,7 +7276,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>487</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7285,674 +7303,675 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="12.625" style="1"/>
+    <col min="3" max="3" width="29.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.09765625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="12.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="38">
-      <c r="B2" s="15" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="58.5">
+      <c r="B2" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>658</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:5" ht="23" customHeight="1">
-      <c r="B17" s="15" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:5" ht="23.1" customHeight="1">
+      <c r="B17" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="24" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="15" t="s">
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="2:5" ht="39">
+      <c r="B22" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" ht="57">
-      <c r="B23" s="15" t="s">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:5" ht="78">
+      <c r="B23" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="9"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>707</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="9"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="38">
-      <c r="B31" s="15" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="2:5" ht="39">
+      <c r="B31" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" ht="66" customHeight="1">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="2:5" ht="38" customHeight="1">
-      <c r="B37" s="15" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:5" ht="38.1" customHeight="1">
+      <c r="B37" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5" ht="38" customHeight="1">
-      <c r="B38" s="15" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:5" ht="38.1" customHeight="1">
+      <c r="B38" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:5" ht="133" customHeight="1">
-      <c r="B39" s="15" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5" ht="132.94999999999999" customHeight="1">
+      <c r="B39" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>12</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:5" ht="38">
-      <c r="B41" s="15">
+      <c r="D40" s="25"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="2:5" ht="39">
+      <c r="B41" s="13">
         <v>28</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="15">
+      <c r="B42" s="13">
         <v>27</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="15">
+      <c r="B43" s="13">
         <v>30</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="15">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="2:5" ht="39">
+      <c r="B44" s="13">
         <v>40</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="15">
+      <c r="B45" s="13">
         <v>41</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <v>42</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="15">
+      <c r="B47" s="13">
         <v>67</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>63</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>72</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="15">
+      <c r="B50" s="13">
         <v>73</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="15">
+      <c r="B51" s="13">
         <v>74</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>75</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="15">
+      <c r="B56" s="13">
         <v>99</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="2:5" ht="38">
-      <c r="B61" s="15" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="2:5" ht="39">
+      <c r="B61" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D49:D52"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D17:D18"/>
@@ -7967,7 +7986,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="D49:D52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7988,11 +8006,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8058,11 +8076,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8320,11 +8338,11 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8406,11 +8424,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8484,11 +8502,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8561,22 +8579,22 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="4" t="s">
@@ -8702,10 +8720,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8799,252 +8817,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="12.625" style="7"/>
+    <col min="1" max="1" width="8.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="12.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:4" ht="58.5">
+      <c r="B8" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="57">
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="58.5">
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="38">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:4" ht="39">
+      <c r="B14" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="38">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:4" ht="39">
+      <c r="B15" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="38">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:4" ht="39">
+      <c r="B19" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="38">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:4" ht="39">
+      <c r="B20" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>645</v>
       </c>
     </row>
@@ -9071,11 +9089,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9156,11 +9174,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9312,10 +9330,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9398,11 +9416,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9500,11 +9518,11 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9578,22 +9596,22 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="39">
+      <c r="A1" s="16" t="s">
         <v>868</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="4" t="s">
@@ -9607,7 +9625,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>870</v>
       </c>
     </row>
@@ -9615,31 +9633,31 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="4"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="4"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="4"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="4"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>875</v>
       </c>
     </row>
@@ -9663,23 +9681,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="39">
+      <c r="A1" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="4" t="s">
@@ -9693,7 +9711,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>878</v>
       </c>
     </row>
@@ -9701,37 +9719,37 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>884</v>
       </c>
     </row>
@@ -9755,34 +9773,34 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>889</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>890</v>
       </c>
     </row>
@@ -9790,7 +9808,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>891</v>
       </c>
       <c r="D3" s="4">
@@ -9804,7 +9822,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>893</v>
       </c>
       <c r="D4" s="4">
@@ -9818,7 +9836,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>895</v>
       </c>
       <c r="D5" s="4">
@@ -9832,7 +9850,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>897</v>
       </c>
       <c r="D6" s="4">
@@ -9846,7 +9864,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>899</v>
       </c>
       <c r="D7" s="4">
@@ -9858,7 +9876,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4">
         <v>6</v>
       </c>
@@ -9996,18 +10014,18 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10023,7 +10041,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10031,7 +10049,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>917</v>
       </c>
     </row>
@@ -10039,7 +10057,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>918</v>
       </c>
     </row>
@@ -10047,18 +10065,18 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="21"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="21"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="21"/>
+      <c r="C9" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10080,18 +10098,18 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -10155,11 +10173,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10256,18 +10274,18 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>927</v>
       </c>
     </row>
@@ -10363,18 +10381,18 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>946</v>
       </c>
     </row>
@@ -10387,10 +10405,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="26" t="s">
         <v>949</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10415,19 +10433,19 @@
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>946</v>
       </c>
     </row>
@@ -10641,20 +10659,20 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>991</v>
       </c>
     </row>
@@ -10727,7 +10745,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10738,22 +10756,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>56</v>
@@ -10883,35 +10901,43 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="15" t="s">
         <v>758</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -10934,11 +10960,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11039,15 +11065,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11262,34 +11288,34 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>758</v>
       </c>
     </row>
@@ -11313,131 +11339,131 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="12.625" style="7"/>
+    <col min="1" max="1" width="8.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="12.59765625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="38">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:3" ht="39">
+      <c r="B3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="38">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:3" ht="39">
+      <c r="B4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:3" ht="39">
+      <c r="B5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:3" ht="39">
+      <c r="B6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:3" ht="39">
+      <c r="B7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="38">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:3" ht="39">
+      <c r="B8" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="38">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:3" ht="39">
+      <c r="B9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="38">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:3" ht="39">
+      <c r="B10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="38">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:3" ht="39">
+      <c r="B11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="38">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:3" ht="39">
+      <c r="B12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="38">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:3" ht="39">
+      <c r="B13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="38">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:3" ht="39">
+      <c r="B14" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="38">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:3" ht="39">
+      <c r="B15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>166</v>
       </c>
     </row>
